--- a/Documentation/highLevelTests.xlsx
+++ b/Documentation/highLevelTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyward/projects/comp296/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D04E25D-3455-E648-A186-97F7DDF9C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F124B850-3D91-4640-A50C-9ACE47E3B253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{FD0C20E4-CB01-CA41-8F75-B2A5513064F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Test Case</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Show review average in search results</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228516EB-DC15-C748-80D4-6F756B42DEAE}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,85 +533,88 @@
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/Documentation/highLevelTests.xlsx
+++ b/Documentation/highLevelTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyward/projects/comp296/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F124B850-3D91-4640-A50C-9ACE47E3B253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460574D-45A7-4D4E-8CD7-2A04C6E23054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{FD0C20E4-CB01-CA41-8F75-B2A5513064F5}"/>
+    <workbookView xWindow="15200" yWindow="4100" windowWidth="38400" windowHeight="21100" xr2:uid="{FD0C20E4-CB01-CA41-8F75-B2A5513064F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Test Case</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2 are created. Must be fixed before deployment</t>
+  </si>
+  <si>
+    <t>Reloading edit page breaks it. Must go back to list and re-enter</t>
+  </si>
+  <si>
+    <t>Pass.</t>
+  </si>
+  <si>
+    <t>Reload breaks search, must reenter search.</t>
+  </si>
+  <si>
+    <t>No incorrect username/password feedback</t>
+  </si>
+  <si>
+    <t>Routine list can be hard to read at some screen sizes</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrollbars disappear or don't appear, which can make navigation difficult as data becomes longer. Very jarring redirect from landing page to signed in homepage. Replace with conditional rendering. </t>
   </si>
 </sst>
 </file>
@@ -205,9 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,15 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228516EB-DC15-C748-80D4-6F756B42DEAE}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -548,200 +579,321 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
